--- a/資料庫資料/短期資料整理.xlsx
+++ b/資料庫資料/短期資料整理.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大學專題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Ucard\資料庫資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E505C856-BC23-4F29-B46F-97F2F167B022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D10FD27-CBD8-4C87-9DFA-C38E665A371A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E0FF8048-9796-42A9-8DDC-551D423B7B39}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="212">
   <si>
     <t>開始</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,9 +525,6 @@
   </si>
   <si>
     <t>蝦皮購物icash聯名卡　搭捷運／公車滿20次享回饋</t>
-  </si>
-  <si>
-    <t>睛品/PROMESSA</t>
   </si>
   <si>
     <t>https://www.cathaybk.com.tw/cathaybk/personal/event/overview/credit-card/shopping/202212/emphaisi-112/</t>
@@ -781,9 +778,6 @@
     </r>
   </si>
   <si>
-    <t>君品酒店、雲品溫泉酒店、翰品酒店(新莊/高雄/花蓮)、嘉義兆品酒店 、品文旅礁溪，可透過以下專屬連結預訂。兆品酒店台中須透過訂房專線預訂(04-24258599#3212)。</t>
-  </si>
-  <si>
     <r>
       <t>雲朗觀光集團各</t>
     </r>
@@ -1296,9 +1290,6 @@
     <t>https://www.cathaybk.com.tw/cathaybk/personal/event/overview/credit-card/transportation/2023/uber_fly_2023/</t>
   </si>
   <si>
-    <t>台北松山機場、桃園國際機場(僅適用於送機行程)、台中清泉崗機場、台南機場、高雄小港機場</t>
-  </si>
-  <si>
     <t>https://www.cathaybk.com.tw/cathaybk/personal/event/overview/credit-card/transportation/2023/uber_thrs_2023/</t>
   </si>
   <si>
@@ -1843,10 +1834,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成旅晶贊飯店-台北蘆洲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.cathaybk.com.tw/cathaybk/personal/event/overview/credit-card/transportation/2023/uber_taxi_2023/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2009,6 +1996,28 @@
       </rPr>
       <t>車資</t>
     </r>
+  </si>
+  <si>
+    <t>君品酒店、雲品溫泉酒店、翰品酒店(新莊/高雄/花蓮)、嘉義兆品酒店 、品文旅礁溪、兆品酒店台中須</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兆品酒店台中須透過訂房專線預訂(04-24258599#3212)。</t>
+  </si>
+  <si>
+    <t>桃園國際機場(僅適用於送機行程)</t>
+  </si>
+  <si>
+    <t>台北松山機場、桃園國際機場、台中清泉崗機場、台南機場、高雄小港機場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睛品、PROMESSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成旅晶贊飯店台北蘆洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2684,7 +2693,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -2704,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="3">
         <v>45170</v>
@@ -2716,7 +2725,7 @@
         <v>0.03</v>
       </c>
       <c r="K3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2748,7 +2757,7 @@
         <v>23</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3738,7 +3747,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E34" s="3">
         <v>45139</v>
@@ -3756,7 +3765,7 @@
         <v>36</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3773,7 +3782,7 @@
         <v>26</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E35" s="3">
         <v>45139</v>
@@ -3808,7 +3817,7 @@
         <v>27</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E36" s="3">
         <v>45139</v>
@@ -3843,7 +3852,7 @@
         <v>28</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E37" s="3">
         <v>45139</v>
@@ -3878,7 +3887,7 @@
         <v>29</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E38" s="3">
         <v>45139</v>
@@ -3913,7 +3922,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E39" s="3">
         <v>45139</v>
@@ -3948,7 +3957,7 @@
         <v>26</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E40" s="3">
         <v>45139</v>
@@ -3983,7 +3992,7 @@
         <v>27</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E41" s="3">
         <v>45139</v>
@@ -4018,7 +4027,7 @@
         <v>28</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E42" s="3">
         <v>45139</v>
@@ -4053,7 +4062,7 @@
         <v>29</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E43" s="3">
         <v>45139</v>
@@ -4088,7 +4097,7 @@
         <v>25</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E44" s="3">
         <v>45139</v>
@@ -4123,7 +4132,7 @@
         <v>26</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E45" s="3">
         <v>45139</v>
@@ -4158,7 +4167,7 @@
         <v>27</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E46" s="3">
         <v>45139</v>
@@ -4193,7 +4202,7 @@
         <v>28</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E47" s="3">
         <v>45139</v>
@@ -4228,7 +4237,7 @@
         <v>29</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E48" s="3">
         <v>45139</v>
@@ -4281,7 +4290,7 @@
         <v>39</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -4806,7 +4815,7 @@
         <v>44</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -4870,10 +4879,10 @@
         <v>0.05</v>
       </c>
       <c r="I66" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J66" s="18" t="s">
         <v>126</v>
-      </c>
-      <c r="J66" s="18" t="s">
-        <v>128</v>
       </c>
       <c r="K66" s="14" t="s">
         <v>46</v>
@@ -4893,7 +4902,7 @@
         <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E67" s="3">
         <v>44927</v>
@@ -4905,13 +4914,13 @@
         <v>0.08</v>
       </c>
       <c r="I67" t="s">
+        <v>129</v>
+      </c>
+      <c r="J67" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J67" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="K67" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -4928,7 +4937,7 @@
         <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E68" s="3">
         <v>44927</v>
@@ -4940,13 +4949,13 @@
         <v>0.08</v>
       </c>
       <c r="I68" t="s">
+        <v>129</v>
+      </c>
+      <c r="J68" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J68" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="K68" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -4963,7 +4972,7 @@
         <v>27</v>
       </c>
       <c r="D69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E69" s="3">
         <v>44927</v>
@@ -4975,13 +4984,13 @@
         <v>0.08</v>
       </c>
       <c r="I69" t="s">
+        <v>129</v>
+      </c>
+      <c r="J69" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J69" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="K69" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -4998,7 +5007,7 @@
         <v>28</v>
       </c>
       <c r="D70" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E70" s="3">
         <v>44927</v>
@@ -5010,13 +5019,13 @@
         <v>0.08</v>
       </c>
       <c r="I70" t="s">
+        <v>129</v>
+      </c>
+      <c r="J70" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J70" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="K70" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -5033,7 +5042,7 @@
         <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E71" s="3">
         <v>44927</v>
@@ -5045,13 +5054,13 @@
         <v>0.08</v>
       </c>
       <c r="I71" t="s">
+        <v>129</v>
+      </c>
+      <c r="J71" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J71" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="K71" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -5068,7 +5077,7 @@
         <v>25</v>
       </c>
       <c r="D72" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E72" s="3">
         <v>44927</v>
@@ -5080,13 +5089,13 @@
         <v>0.08</v>
       </c>
       <c r="I72" t="s">
+        <v>129</v>
+      </c>
+      <c r="J72" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J72" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="K72" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -5103,7 +5112,7 @@
         <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E73" s="3">
         <v>44927</v>
@@ -5115,13 +5124,13 @@
         <v>0.08</v>
       </c>
       <c r="I73" t="s">
+        <v>129</v>
+      </c>
+      <c r="J73" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J73" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="K73" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -5138,7 +5147,7 @@
         <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E74" s="3">
         <v>44927</v>
@@ -5150,13 +5159,13 @@
         <v>0.08</v>
       </c>
       <c r="I74" t="s">
+        <v>129</v>
+      </c>
+      <c r="J74" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J74" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="K74" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -5173,7 +5182,7 @@
         <v>28</v>
       </c>
       <c r="D75" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E75" s="3">
         <v>44927</v>
@@ -5185,13 +5194,13 @@
         <v>0.08</v>
       </c>
       <c r="I75" t="s">
+        <v>129</v>
+      </c>
+      <c r="J75" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J75" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="K75" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -5208,7 +5217,7 @@
         <v>29</v>
       </c>
       <c r="D76" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E76" s="3">
         <v>44927</v>
@@ -5220,13 +5229,13 @@
         <v>0.08</v>
       </c>
       <c r="I76" t="s">
+        <v>129</v>
+      </c>
+      <c r="J76" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J76" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="K76" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -5243,7 +5252,7 @@
         <v>25</v>
       </c>
       <c r="D77" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E77" s="3">
         <v>44927</v>
@@ -5255,13 +5264,13 @@
         <v>0.08</v>
       </c>
       <c r="I77" t="s">
+        <v>129</v>
+      </c>
+      <c r="J77" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J77" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="K77" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -5278,7 +5287,7 @@
         <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E78" s="3">
         <v>44927</v>
@@ -5290,13 +5299,13 @@
         <v>0.08</v>
       </c>
       <c r="I78" t="s">
+        <v>129</v>
+      </c>
+      <c r="J78" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J78" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="K78" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -5313,7 +5322,7 @@
         <v>27</v>
       </c>
       <c r="D79" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E79" s="3">
         <v>44927</v>
@@ -5325,13 +5334,13 @@
         <v>0.08</v>
       </c>
       <c r="I79" t="s">
+        <v>129</v>
+      </c>
+      <c r="J79" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J79" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="K79" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -5348,7 +5357,7 @@
         <v>28</v>
       </c>
       <c r="D80" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E80" s="3">
         <v>44927</v>
@@ -5360,13 +5369,13 @@
         <v>0.08</v>
       </c>
       <c r="I80" t="s">
+        <v>129</v>
+      </c>
+      <c r="J80" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J80" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="K80" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -5383,7 +5392,7 @@
         <v>29</v>
       </c>
       <c r="D81" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E81" s="3">
         <v>44927</v>
@@ -5395,13 +5404,13 @@
         <v>0.08</v>
       </c>
       <c r="I81" t="s">
+        <v>129</v>
+      </c>
+      <c r="J81" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J81" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="K81" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -5418,7 +5427,7 @@
         <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E82" s="3">
         <v>45108</v>
@@ -5430,10 +5439,10 @@
         <v>0.02</v>
       </c>
       <c r="J82" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K82" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -5450,7 +5459,7 @@
         <v>27</v>
       </c>
       <c r="D83" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E83" s="3">
         <v>45108</v>
@@ -5462,7 +5471,7 @@
         <v>0.02</v>
       </c>
       <c r="J83" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K83" t="s">
         <v>47</v>
@@ -5482,7 +5491,7 @@
         <v>27</v>
       </c>
       <c r="D84" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E84" s="3">
         <v>45108</v>
@@ -5494,7 +5503,7 @@
         <v>0.02</v>
       </c>
       <c r="J84" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K84" t="s">
         <v>47</v>
@@ -5514,7 +5523,7 @@
         <v>27</v>
       </c>
       <c r="D85" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E85" s="3">
         <v>45108</v>
@@ -5526,7 +5535,7 @@
         <v>0.06</v>
       </c>
       <c r="J85" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K85" t="s">
         <v>47</v>
@@ -5546,7 +5555,7 @@
         <v>27</v>
       </c>
       <c r="D86" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E86" s="3">
         <v>45108</v>
@@ -5558,7 +5567,7 @@
         <v>0.06</v>
       </c>
       <c r="J86" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K86" t="s">
         <v>47</v>
@@ -5578,7 +5587,7 @@
         <v>27</v>
       </c>
       <c r="D87" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E87" s="3">
         <v>45108</v>
@@ -5590,7 +5599,7 @@
         <v>0.06</v>
       </c>
       <c r="J87" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K87" t="s">
         <v>47</v>
@@ -6182,10 +6191,10 @@
         <v>0.05</v>
       </c>
       <c r="J104" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K104" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L104">
         <v>0</v>
@@ -6202,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E105" s="3">
         <v>44927</v>
@@ -6220,7 +6229,7 @@
         <v>71</v>
       </c>
       <c r="K105" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -6237,7 +6246,7 @@
         <v>72</v>
       </c>
       <c r="D106" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E106" s="3">
         <v>44927</v>
@@ -6249,10 +6258,10 @@
         <v>0.04</v>
       </c>
       <c r="I106" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K106" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L106">
         <v>0</v>
@@ -6269,7 +6278,7 @@
         <v>72</v>
       </c>
       <c r="D107" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E107" s="3">
         <v>44927</v>
@@ -6281,13 +6290,13 @@
         <v>0.06</v>
       </c>
       <c r="I107" t="s">
+        <v>187</v>
+      </c>
+      <c r="J107" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="J107" s="11" t="s">
-        <v>193</v>
-      </c>
       <c r="K107" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L107">
         <v>0</v>
@@ -6329,10 +6338,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3628667B-125E-472E-8E13-0A28871406F5}">
   <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -6342,7 +6351,7 @@
     <col min="6" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="10" max="10" width="108.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6366,13 +6375,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" t="s">
         <v>92</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" t="s">
-        <v>93</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -6439,7 +6448,7 @@
         <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="3">
         <v>45156</v>
@@ -6455,10 +6464,10 @@
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>21</v>
@@ -6478,7 +6487,7 @@
         <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="3">
         <v>45156</v>
@@ -6494,10 +6503,10 @@
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>21</v>
@@ -6517,7 +6526,7 @@
         <v>104</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="3">
         <v>45156</v>
@@ -6533,10 +6542,10 @@
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="L5" s="14" t="s">
         <v>21</v>
@@ -6556,7 +6565,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" s="3">
         <v>45139</v>
@@ -6568,7 +6577,10 @@
         <v>0.04</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>105</v>
+        <v>206</v>
+      </c>
+      <c r="K6" t="s">
+        <v>207</v>
       </c>
       <c r="L6" t="s">
         <v>34</v>
@@ -6588,7 +6600,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7" s="3">
         <v>45139</v>
@@ -6600,7 +6612,10 @@
         <v>0.04</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>105</v>
+        <v>206</v>
+      </c>
+      <c r="K7" t="s">
+        <v>207</v>
       </c>
       <c r="L7" t="s">
         <v>34</v>
@@ -6620,7 +6635,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="3">
         <v>45139</v>
@@ -6632,7 +6647,10 @@
         <v>0.04</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>105</v>
+        <v>206</v>
+      </c>
+      <c r="K8" t="s">
+        <v>207</v>
       </c>
       <c r="L8" t="s">
         <v>34</v>
@@ -6652,7 +6670,7 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" s="3">
         <v>45139</v>
@@ -6664,7 +6682,10 @@
         <v>0.04</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>105</v>
+        <v>206</v>
+      </c>
+      <c r="K9" t="s">
+        <v>207</v>
       </c>
       <c r="L9" t="s">
         <v>34</v>
@@ -6684,7 +6705,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" s="3">
         <v>45139</v>
@@ -6696,7 +6717,10 @@
         <v>0.04</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>105</v>
+        <v>206</v>
+      </c>
+      <c r="K10" t="s">
+        <v>207</v>
       </c>
       <c r="L10" t="s">
         <v>34</v>
@@ -6716,7 +6740,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="3">
         <v>45139</v>
@@ -6728,7 +6752,10 @@
         <v>0.04</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>105</v>
+        <v>206</v>
+      </c>
+      <c r="K11" t="s">
+        <v>207</v>
       </c>
       <c r="L11" t="s">
         <v>34</v>
@@ -6748,7 +6775,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="3">
         <v>45139</v>
@@ -6760,7 +6787,10 @@
         <v>0.04</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>105</v>
+        <v>206</v>
+      </c>
+      <c r="K12" t="s">
+        <v>207</v>
       </c>
       <c r="L12" t="s">
         <v>34</v>
@@ -6780,7 +6810,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" s="3">
         <v>45139</v>
@@ -6792,7 +6822,10 @@
         <v>0.04</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>105</v>
+        <v>206</v>
+      </c>
+      <c r="K13" t="s">
+        <v>207</v>
       </c>
       <c r="L13" t="s">
         <v>34</v>
@@ -6812,7 +6845,7 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" s="3">
         <v>45139</v>
@@ -6824,7 +6857,10 @@
         <v>0.04</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>105</v>
+        <v>206</v>
+      </c>
+      <c r="K14" t="s">
+        <v>207</v>
       </c>
       <c r="L14" t="s">
         <v>34</v>
@@ -6844,7 +6880,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" s="3">
         <v>45139</v>
@@ -6856,7 +6892,10 @@
         <v>0.04</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>105</v>
+        <v>206</v>
+      </c>
+      <c r="K15" t="s">
+        <v>207</v>
       </c>
       <c r="L15" t="s">
         <v>34</v>
@@ -6876,7 +6915,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16" s="3">
         <v>45139</v>
@@ -6888,7 +6927,10 @@
         <v>0.04</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>105</v>
+        <v>206</v>
+      </c>
+      <c r="K16" t="s">
+        <v>207</v>
       </c>
       <c r="L16" t="s">
         <v>34</v>
@@ -6908,7 +6950,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E17" s="3">
         <v>45139</v>
@@ -6920,7 +6962,10 @@
         <v>0.04</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>105</v>
+        <v>206</v>
+      </c>
+      <c r="K17" t="s">
+        <v>207</v>
       </c>
       <c r="L17" t="s">
         <v>34</v>
@@ -6940,7 +6985,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E18" s="3">
         <v>45139</v>
@@ -6952,7 +6997,10 @@
         <v>0.04</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>105</v>
+        <v>206</v>
+      </c>
+      <c r="K18" t="s">
+        <v>207</v>
       </c>
       <c r="L18" t="s">
         <v>34</v>
@@ -6972,7 +7020,7 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="3">
         <v>45139</v>
@@ -6984,7 +7032,10 @@
         <v>0.04</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>105</v>
+        <v>206</v>
+      </c>
+      <c r="K19" t="s">
+        <v>207</v>
       </c>
       <c r="L19" t="s">
         <v>34</v>
@@ -7004,7 +7055,7 @@
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20" s="3">
         <v>45139</v>
@@ -7016,7 +7067,10 @@
         <v>0.04</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>105</v>
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
+        <v>207</v>
       </c>
       <c r="L20" t="s">
         <v>34</v>
@@ -7036,7 +7090,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E21" s="3">
         <v>45139</v>
@@ -7051,7 +7105,7 @@
         <v>40</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -7068,7 +7122,7 @@
         <v>26</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E22" s="3">
         <v>45139</v>
@@ -7100,7 +7154,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E23" s="3">
         <v>45139</v>
@@ -7132,7 +7186,7 @@
         <v>28</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E24" s="3">
         <v>45139</v>
@@ -7164,7 +7218,7 @@
         <v>29</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E25" s="3">
         <v>45139</v>
@@ -7196,7 +7250,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E26" s="3">
         <v>45139</v>
@@ -7228,7 +7282,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E27" s="3">
         <v>45139</v>
@@ -7260,7 +7314,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E28" s="3">
         <v>45139</v>
@@ -7292,7 +7346,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E29" s="3">
         <v>45139</v>
@@ -7324,7 +7378,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E30" s="3">
         <v>45139</v>
@@ -7356,7 +7410,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E31" s="3">
         <v>45139</v>
@@ -7388,7 +7442,7 @@
         <v>26</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E32" s="3">
         <v>45139</v>
@@ -7420,7 +7474,7 @@
         <v>27</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E33" s="3">
         <v>45139</v>
@@ -7452,7 +7506,7 @@
         <v>28</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E34" s="3">
         <v>45139</v>
@@ -7484,7 +7538,7 @@
         <v>29</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E35" s="3">
         <v>45139</v>
@@ -7516,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E36" s="3">
         <v>45108</v>
@@ -7531,13 +7585,13 @@
         <v>888</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K36" t="s">
+        <v>123</v>
+      </c>
+      <c r="L36" t="s">
         <v>125</v>
-      </c>
-      <c r="L36" t="s">
-        <v>127</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -7554,7 +7608,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E37" s="3">
         <v>44927</v>
@@ -7566,10 +7620,10 @@
         <v>0.06</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -7586,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E38" s="3">
         <v>45200</v>
@@ -7598,10 +7652,10 @@
         <v>0.15</v>
       </c>
       <c r="J38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -7618,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E39" s="3">
         <v>45200</v>
@@ -7633,10 +7687,10 @@
         <v>1000</v>
       </c>
       <c r="J39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -7653,7 +7707,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E40" s="3">
         <v>45200</v>
@@ -7668,7 +7722,7 @@
         <v>68</v>
       </c>
       <c r="L40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -7685,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E41" s="3">
         <v>45200</v>
@@ -7697,10 +7751,10 @@
         <v>0.02</v>
       </c>
       <c r="J41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -7717,7 +7771,7 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E42" s="3">
         <v>45108</v>
@@ -7732,13 +7786,13 @@
         <v>1000</v>
       </c>
       <c r="J42" t="s">
+        <v>146</v>
+      </c>
+      <c r="K42" t="s">
+        <v>145</v>
+      </c>
+      <c r="L42" t="s">
         <v>148</v>
-      </c>
-      <c r="K42" t="s">
-        <v>147</v>
-      </c>
-      <c r="L42" t="s">
-        <v>150</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -7755,7 +7809,7 @@
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E43" s="3">
         <v>45108</v>
@@ -7770,13 +7824,13 @@
         <v>1000</v>
       </c>
       <c r="J43" t="s">
+        <v>146</v>
+      </c>
+      <c r="K43" t="s">
+        <v>145</v>
+      </c>
+      <c r="L43" t="s">
         <v>148</v>
-      </c>
-      <c r="K43" t="s">
-        <v>147</v>
-      </c>
-      <c r="L43" t="s">
-        <v>150</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -7793,7 +7847,7 @@
         <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E44" s="3">
         <v>45108</v>
@@ -7808,13 +7862,13 @@
         <v>1000</v>
       </c>
       <c r="J44" t="s">
+        <v>146</v>
+      </c>
+      <c r="K44" t="s">
+        <v>145</v>
+      </c>
+      <c r="L44" t="s">
         <v>148</v>
-      </c>
-      <c r="K44" t="s">
-        <v>147</v>
-      </c>
-      <c r="L44" t="s">
-        <v>150</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -7831,7 +7885,7 @@
         <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E45" s="3">
         <v>45108</v>
@@ -7846,13 +7900,13 @@
         <v>1000</v>
       </c>
       <c r="J45" t="s">
+        <v>146</v>
+      </c>
+      <c r="K45" t="s">
+        <v>145</v>
+      </c>
+      <c r="L45" t="s">
         <v>148</v>
-      </c>
-      <c r="K45" t="s">
-        <v>147</v>
-      </c>
-      <c r="L45" t="s">
-        <v>150</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -7869,7 +7923,7 @@
         <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E46" s="3">
         <v>45108</v>
@@ -7884,13 +7938,13 @@
         <v>1000</v>
       </c>
       <c r="J46" t="s">
+        <v>146</v>
+      </c>
+      <c r="K46" t="s">
+        <v>145</v>
+      </c>
+      <c r="L46" t="s">
         <v>148</v>
-      </c>
-      <c r="K46" t="s">
-        <v>147</v>
-      </c>
-      <c r="L46" t="s">
-        <v>150</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -7907,7 +7961,7 @@
         <v>25</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E47" s="3">
         <v>45108</v>
@@ -7922,13 +7976,13 @@
         <v>1000</v>
       </c>
       <c r="J47" t="s">
+        <v>146</v>
+      </c>
+      <c r="K47" t="s">
+        <v>145</v>
+      </c>
+      <c r="L47" t="s">
         <v>148</v>
-      </c>
-      <c r="K47" t="s">
-        <v>147</v>
-      </c>
-      <c r="L47" t="s">
-        <v>150</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -7945,7 +7999,7 @@
         <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E48" s="3">
         <v>45108</v>
@@ -7960,13 +8014,13 @@
         <v>1000</v>
       </c>
       <c r="J48" t="s">
+        <v>146</v>
+      </c>
+      <c r="K48" t="s">
+        <v>145</v>
+      </c>
+      <c r="L48" t="s">
         <v>148</v>
-      </c>
-      <c r="K48" t="s">
-        <v>147</v>
-      </c>
-      <c r="L48" t="s">
-        <v>150</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -7983,7 +8037,7 @@
         <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E49" s="3">
         <v>45108</v>
@@ -7998,13 +8052,13 @@
         <v>1000</v>
       </c>
       <c r="J49" t="s">
+        <v>146</v>
+      </c>
+      <c r="K49" t="s">
+        <v>145</v>
+      </c>
+      <c r="L49" t="s">
         <v>148</v>
-      </c>
-      <c r="K49" t="s">
-        <v>147</v>
-      </c>
-      <c r="L49" t="s">
-        <v>150</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -8021,7 +8075,7 @@
         <v>28</v>
       </c>
       <c r="D50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E50" s="3">
         <v>45108</v>
@@ -8036,13 +8090,13 @@
         <v>1000</v>
       </c>
       <c r="J50" t="s">
+        <v>146</v>
+      </c>
+      <c r="K50" t="s">
+        <v>145</v>
+      </c>
+      <c r="L50" t="s">
         <v>148</v>
-      </c>
-      <c r="K50" t="s">
-        <v>147</v>
-      </c>
-      <c r="L50" t="s">
-        <v>150</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -8059,7 +8113,7 @@
         <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E51" s="3">
         <v>45108</v>
@@ -8074,13 +8128,13 @@
         <v>1000</v>
       </c>
       <c r="J51" t="s">
+        <v>146</v>
+      </c>
+      <c r="K51" t="s">
+        <v>145</v>
+      </c>
+      <c r="L51" t="s">
         <v>148</v>
-      </c>
-      <c r="K51" t="s">
-        <v>147</v>
-      </c>
-      <c r="L51" t="s">
-        <v>150</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -8097,7 +8151,7 @@
         <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E52" s="3">
         <v>45108</v>
@@ -8112,13 +8166,13 @@
         <v>1000</v>
       </c>
       <c r="J52" t="s">
+        <v>146</v>
+      </c>
+      <c r="K52" t="s">
+        <v>145</v>
+      </c>
+      <c r="L52" t="s">
         <v>148</v>
-      </c>
-      <c r="K52" t="s">
-        <v>147</v>
-      </c>
-      <c r="L52" t="s">
-        <v>150</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -8135,7 +8189,7 @@
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E53" s="3">
         <v>45108</v>
@@ -8150,13 +8204,13 @@
         <v>1000</v>
       </c>
       <c r="J53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K53" t="s">
+        <v>145</v>
+      </c>
+      <c r="L53" t="s">
         <v>148</v>
-      </c>
-      <c r="K53" t="s">
-        <v>147</v>
-      </c>
-      <c r="L53" t="s">
-        <v>150</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -8173,7 +8227,7 @@
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E54" s="3">
         <v>45108</v>
@@ -8188,13 +8242,13 @@
         <v>1000</v>
       </c>
       <c r="J54" t="s">
+        <v>146</v>
+      </c>
+      <c r="K54" t="s">
+        <v>145</v>
+      </c>
+      <c r="L54" t="s">
         <v>148</v>
-      </c>
-      <c r="K54" t="s">
-        <v>147</v>
-      </c>
-      <c r="L54" t="s">
-        <v>150</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -8211,7 +8265,7 @@
         <v>28</v>
       </c>
       <c r="D55" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E55" s="3">
         <v>45108</v>
@@ -8226,13 +8280,13 @@
         <v>1000</v>
       </c>
       <c r="J55" t="s">
+        <v>146</v>
+      </c>
+      <c r="K55" t="s">
+        <v>145</v>
+      </c>
+      <c r="L55" t="s">
         <v>148</v>
-      </c>
-      <c r="K55" t="s">
-        <v>147</v>
-      </c>
-      <c r="L55" t="s">
-        <v>150</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -8249,7 +8303,7 @@
         <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E56" s="3">
         <v>45108</v>
@@ -8264,13 +8318,13 @@
         <v>1000</v>
       </c>
       <c r="J56" t="s">
+        <v>146</v>
+      </c>
+      <c r="K56" t="s">
+        <v>145</v>
+      </c>
+      <c r="L56" t="s">
         <v>148</v>
-      </c>
-      <c r="K56" t="s">
-        <v>147</v>
-      </c>
-      <c r="L56" t="s">
-        <v>150</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -8287,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E57" s="3">
         <v>45108</v>
@@ -8302,10 +8356,13 @@
         <v>240</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>153</v>
+        <v>209</v>
+      </c>
+      <c r="K57" t="s">
+        <v>208</v>
       </c>
       <c r="L57" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -8322,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E58" s="3">
         <v>45108</v>
@@ -8337,10 +8394,10 @@
         <v>100</v>
       </c>
       <c r="J58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L58" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -8357,7 +8414,7 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E59" s="3">
         <v>45092</v>
@@ -8369,7 +8426,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="J59" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L59" t="s">
         <v>50</v>
@@ -8389,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E60" s="3">
         <v>45092</v>
@@ -8404,7 +8461,7 @@
         <v>1000</v>
       </c>
       <c r="J60" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L60" t="s">
         <v>50</v>
@@ -8424,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G61" s="4">
         <v>0.5</v>
@@ -8433,10 +8490,10 @@
         <v>200</v>
       </c>
       <c r="J61" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L61" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -8453,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E62" s="3">
         <v>44927</v>
@@ -8468,7 +8525,7 @@
         <v>56</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -8485,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E63" s="3">
         <v>44927</v>
@@ -8500,7 +8557,7 @@
         <v>56</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -8605,7 +8662,7 @@
         <v>69</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -8622,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E67" s="3">
         <v>44927</v>
@@ -8634,13 +8691,13 @@
         <v>0.3</v>
       </c>
       <c r="J67" t="s">
+        <v>164</v>
+      </c>
+      <c r="K67" t="s">
+        <v>166</v>
+      </c>
+      <c r="L67" t="s">
         <v>167</v>
-      </c>
-      <c r="K67" t="s">
-        <v>169</v>
-      </c>
-      <c r="L67" t="s">
-        <v>170</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -8657,7 +8714,7 @@
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E68" s="3">
         <v>44927</v>
@@ -8669,13 +8726,13 @@
         <v>0.35</v>
       </c>
       <c r="J68" t="s">
+        <v>164</v>
+      </c>
+      <c r="K68" t="s">
+        <v>166</v>
+      </c>
+      <c r="L68" t="s">
         <v>167</v>
-      </c>
-      <c r="K68" t="s">
-        <v>169</v>
-      </c>
-      <c r="L68" t="s">
-        <v>170</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -8689,10 +8746,10 @@
         <v>1</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D69" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E69" s="3">
         <v>44927</v>
@@ -8704,10 +8761,10 @@
         <v>0.3</v>
       </c>
       <c r="J69" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L69" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -8721,10 +8778,10 @@
         <v>1</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" t="s">
         <v>172</v>
-      </c>
-      <c r="D70" t="s">
-        <v>175</v>
       </c>
       <c r="E70" s="3">
         <v>44927</v>
@@ -8736,10 +8793,10 @@
         <v>0.2</v>
       </c>
       <c r="J70" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L70" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -8753,10 +8810,10 @@
         <v>1</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D71" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E71" s="3">
         <v>44927</v>
@@ -8768,10 +8825,10 @@
         <v>0.3</v>
       </c>
       <c r="J71" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L71" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -8785,10 +8842,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D72" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E72" s="3">
         <v>44927</v>
@@ -8800,10 +8857,10 @@
         <v>0.2</v>
       </c>
       <c r="J72" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L72" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -8820,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E73" s="3">
         <v>44927</v>
@@ -8832,13 +8889,13 @@
         <v>0.1</v>
       </c>
       <c r="J73" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K73" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -8855,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E74" s="3">
         <v>44927</v>
@@ -8867,10 +8924,10 @@
         <v>0.05</v>
       </c>
       <c r="J74" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -8887,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E75" s="3">
         <v>44927</v>
@@ -8899,10 +8956,10 @@
         <v>0.05</v>
       </c>
       <c r="J75" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -8931,13 +8988,13 @@
         <v>50</v>
       </c>
       <c r="J76" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K76" t="s">
         <v>73</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -8954,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E77" s="3">
         <v>44927</v>
@@ -8966,10 +9023,10 @@
         <v>0.1</v>
       </c>
       <c r="J77" t="s">
+        <v>210</v>
+      </c>
+      <c r="L77" t="s">
         <v>75</v>
-      </c>
-      <c r="L77" t="s">
-        <v>76</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -8983,10 +9040,10 @@
         <v>0</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E78" s="3">
         <v>44927</v>
@@ -8998,10 +9055,10 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -9018,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E79" s="3">
         <v>44927</v>
@@ -9033,13 +9090,13 @@
         <v>200</v>
       </c>
       <c r="J79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -9056,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E80" s="3">
         <v>44927</v>
@@ -9068,13 +9125,13 @@
         <v>0.5</v>
       </c>
       <c r="J80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -9091,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E81" s="3">
         <v>44927</v>
@@ -9103,13 +9160,13 @@
         <v>0.2</v>
       </c>
       <c r="J81" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -9126,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E82" s="3">
         <v>44927</v>
@@ -9138,10 +9195,10 @@
         <v>0.1</v>
       </c>
       <c r="J82" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -9158,7 +9215,7 @@
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E83" s="3">
         <v>44927</v>
@@ -9173,13 +9230,13 @@
         <v>300</v>
       </c>
       <c r="J83" t="s">
+        <v>86</v>
+      </c>
+      <c r="K83" t="s">
         <v>87</v>
       </c>
-      <c r="K83" t="s">
-        <v>88</v>
-      </c>
       <c r="L83" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -9196,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E84" s="3">
         <v>44927</v>
@@ -9211,13 +9268,13 @@
         <v>240</v>
       </c>
       <c r="J84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K84" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -9234,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E85" s="3">
         <v>44927</v>
@@ -9249,13 +9306,13 @@
         <v>300</v>
       </c>
       <c r="J85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M85">
         <v>0</v>
